--- a/image/chargeitem.xlsx
+++ b/image/chargeitem.xlsx
@@ -1135,45 +1135,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.12890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.94921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.38671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.05078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/chargeitem.xlsx
+++ b/image/chargeitem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="312">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -615,10 +615,6 @@
   </si>
   <si>
     <t>ChargeItem.performer.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1135,45 +1131,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.12890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.94921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.05078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3419,13 +3415,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3476,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3497,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3505,7 +3501,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3534,7 +3530,7 @@
         <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>98</v>
@@ -3587,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3608,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3616,11 +3612,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3642,10 +3638,10 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>98</v>
@@ -3700,7 +3696,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3729,7 +3725,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3755,10 +3751,10 @@
         <v>144</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3788,11 +3784,11 @@
         <v>147</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3809,7 +3805,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3824,13 +3820,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3838,7 +3834,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3861,13 +3857,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3918,7 +3914,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -3933,21 +3929,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3970,16 +3966,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4029,7 +4025,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4044,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4058,7 +4054,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4081,16 +4077,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4140,7 +4136,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4161,7 +4157,7 @@
         <v>92</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4169,7 +4165,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4192,16 +4188,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4251,7 +4247,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4269,7 +4265,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4280,7 +4276,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4303,16 +4299,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4362,7 +4358,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4380,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4391,7 +4387,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4417,13 +4413,13 @@
         <v>144</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4452,11 +4448,11 @@
         <v>147</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4494,7 +4490,7 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4502,7 +4498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4525,16 +4521,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4584,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4602,7 +4598,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4613,7 +4609,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4636,16 +4632,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4695,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4713,7 +4709,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4724,7 +4720,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4747,16 +4743,16 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4806,7 +4802,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4835,7 +4831,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4858,16 +4854,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4917,7 +4913,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4938,15 +4934,15 @@
         <v>189</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4969,16 +4965,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5028,7 +5024,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5057,7 +5053,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5083,13 +5079,13 @@
         <v>144</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5118,11 +5114,11 @@
         <v>147</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5154,21 +5150,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5191,13 +5187,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5248,7 +5244,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5263,21 +5259,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5300,13 +5296,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5336,11 +5332,11 @@
         <v>147</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5378,7 +5374,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5386,7 +5382,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5409,16 +5405,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5468,7 +5464,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5497,7 +5493,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5520,13 +5516,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5577,7 +5573,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5592,13 +5588,13 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5606,7 +5602,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5629,13 +5625,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5686,7 +5682,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5701,7 +5697,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
